--- a/medicine/Pharmacie/Burchard_(pharmaciens)/Burchard_(pharmaciens).xlsx
+++ b/medicine/Pharmacie/Burchard_(pharmaciens)/Burchard_(pharmaciens).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Burchard von Bélavary de Sycava dit Burchard sont une famille d'origine hongroise qui a donné du XVIe siècle à la fin du XIXe siècle dix générations de docteur-pharmaciens (voir Raeapteek) à Tallinn, en Estonie.
 </t>
@@ -511,7 +523,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Voir la famille Burchard-Bélaváry
@@ -576,7 +590,9 @@
           <t>Sources, lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Peeter Tarvel, Eesti biograafilise lesikoi täiendusköide, Kirjastus osaühing "Loodus", 1940
 Gustavson. H., Tallinna vanadest apteekidest. Tallinn 1972 sur raeapteek.ee
